--- a/public/lesson/dc.xlsx
+++ b/public/lesson/dc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skynet/Documents/WVU/Teaching/GitHub.nosync/Workspace/edp613/content/lesson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09A69607-A61B-374C-9192-089392BC1790}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3B842F-E048-334B-8C97-BC8FF5F9F033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11200" yWindow="1800" windowWidth="20940" windowHeight="16940" xr2:uid="{7352C92D-FA64-2142-8490-63A18E8148A2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
   <si>
     <t>Group</t>
   </si>
@@ -273,10 +273,10 @@
     <t>The n's justify the means, Pull Your Data Up By Its Bootstraps</t>
   </si>
   <si>
-    <t>Time to Define the Relationship, Time to Define the Relationship</t>
-  </si>
-  <si>
     <t>[Week 13](/lesson/13-lesson/)</t>
+  </si>
+  <si>
+    <t>Time to Define the Relationship</t>
   </si>
 </sst>
 </file>
@@ -318,9 +318,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,17 +638,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574D8E9D-330E-6B41-9592-7F90C5C48F16}">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C1" t="s">
@@ -676,10 +680,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -708,50 +712,58 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
+      <c r="B3" s="2"/>
       <c r="I3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
+      <c r="B4" s="2"/>
       <c r="I4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="I5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
+      <c r="B6" s="2"/>
       <c r="I6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
+      <c r="B7" s="2"/>
       <c r="I7" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+    </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" t="s">
@@ -780,18 +792,22 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
+      <c r="B10" s="2"/>
       <c r="I10" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>3</v>
       </c>
       <c r="C12" t="s">
@@ -820,14 +836,16 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>3</v>
       </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>3</v>
       </c>
+      <c r="B14" s="2"/>
       <c r="G14" t="s">
         <v>8</v>
       </c>
@@ -841,11 +859,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>4</v>
       </c>
       <c r="C16" t="s">
@@ -874,14 +895,16 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>4</v>
       </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>4</v>
       </c>
+      <c r="B18" s="2"/>
       <c r="G18" t="s">
         <v>8</v>
       </c>
@@ -896,18 +919,22 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>4</v>
       </c>
+      <c r="B19" s="2"/>
       <c r="I19" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+    </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>5</v>
       </c>
       <c r="C21" t="s">
@@ -936,14 +963,16 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>5</v>
       </c>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>5</v>
       </c>
+      <c r="B23" s="2"/>
       <c r="G23" t="s">
         <v>8</v>
       </c>
@@ -958,26 +987,27 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>5</v>
       </c>
+      <c r="B24" s="2"/>
       <c r="I24" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+    </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>6</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="1">
-        <v>44469</v>
-      </c>
       <c r="E26" s="1">
         <v>44475</v>
       </c>
@@ -998,22 +1028,25 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>6</v>
       </c>
+      <c r="B27" s="2"/>
       <c r="I27" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>6</v>
       </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>6</v>
       </c>
+      <c r="B29" s="2"/>
       <c r="H29" t="s">
         <v>44</v>
       </c>
@@ -1025,18 +1058,22 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>6</v>
       </c>
+      <c r="B30" s="2"/>
       <c r="I30" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+    </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>7</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>7</v>
       </c>
       <c r="C32" t="s">
@@ -1065,18 +1102,22 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>7</v>
       </c>
+      <c r="B33" s="2"/>
       <c r="I33" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+    </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>9</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>8</v>
       </c>
       <c r="C35" t="s">
@@ -1104,11 +1145,14 @@
         <v>49</v>
       </c>
     </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+    </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>10</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>9</v>
       </c>
       <c r="C37" t="s">
@@ -1137,15 +1181,16 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>11</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>10</v>
       </c>
       <c r="C39" t="s">
@@ -1174,18 +1219,22 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>11</v>
       </c>
+      <c r="B40" s="2"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+    </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>12</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>11</v>
       </c>
       <c r="C42" t="s">
@@ -1214,22 +1263,26 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>12</v>
       </c>
+      <c r="B43" s="2"/>
       <c r="I43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>13</v>
+      </c>
+      <c r="B45" s="2">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>13</v>
-      </c>
-      <c r="B45">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>80</v>
       </c>
       <c r="D45" s="1">
         <v>44518</v>
@@ -1253,8 +1306,14 @@
         <v>72</v>
       </c>
     </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+    </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="1">
@@ -1280,7 +1339,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E48" s="1"/>
@@ -1290,7 +1352,10 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I49" t="s">
@@ -1298,7 +1363,10 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I50" t="s">
@@ -1306,12 +1374,18 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B51" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G52" t="s">
@@ -1322,10 +1396,14 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="2"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="1">
@@ -1351,7 +1429,10 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I55" t="s">
@@ -1359,7 +1440,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I56" t="s">
@@ -1367,7 +1451,10 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I57" t="s">
